--- a/scripts/reports/gsp_ofdata_ofbiz/resource/OFD CE Listing Extraction (for Orion).xlsx
+++ b/scripts/reports/gsp_ofdata_ofbiz/resource/OFD CE Listing Extraction (for Orion).xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27109"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://singtel-my.sharepoint.com/personal/kailing_teong_singtel_com/Documents/CE/2022/Transact Survey analysis/Exclusion rules or Questionnaire or User Roles/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\p1319639\Development\orion_report_management_tool\scripts\reports\gsp_ofdata_ofbiz\resource\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E0DECCA1-2828-41AA-89ED-53C9604AF7E3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1E1BB4DD-F0F5-433D-A416-F75528830BC6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6B3AA88D-8510-48F5-8C6D-3CB86E07FEDD}"/>
+    <workbookView xWindow="60" yWindow="-18120" windowWidth="29040" windowHeight="17640" activeTab="1" xr2:uid="{6B3AA88D-8510-48F5-8C6D-3CB86E07FEDD}"/>
   </bookViews>
   <sheets>
     <sheet name="16112023" sheetId="1" r:id="rId1"/>
+    <sheet name="password_logic" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="HL_19">#REF!</definedName>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="59">
   <si>
     <t>EAG &amp; GB REPORT (OF Data)</t>
   </si>
@@ -728,12 +729,16 @@
   <si>
     <t>Add 1 column - Values = "PM" or "Non-PM"</t>
   </si>
+  <si>
+    <t>For Business Segment (OF Biz): BSOFB&lt;MMY@YY&gt; e.g. BSOFB062@23 for extractions in June
+For EAG/GB (OF Data): GLEOFD&lt;MMY@YY&gt;, e.g. GLEOFD062@23 for extractions in June</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21">
+  <fonts count="21" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -984,7 +989,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="top"/>
@@ -1084,6 +1089,9 @@
     </xf>
     <xf numFmtId="0" fontId="17" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1401,27 +1409,27 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{07811F8D-C730-461A-9E5D-48D0EF7219F3}">
   <dimension ref="A1:E44"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView showGridLines="0" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="14.45" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="8.6640625" defaultRowHeight="14.4" outlineLevelRow="1" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="23.5703125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="26.42578125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="51.42578125" style="7" customWidth="1"/>
-    <col min="4" max="4" width="46.140625" style="1" customWidth="1"/>
-    <col min="5" max="16384" width="8.7109375" style="1"/>
+    <col min="1" max="1" width="23.5546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="26.44140625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="51.44140625" style="7" customWidth="1"/>
+    <col min="4" max="4" width="46.109375" style="1" customWidth="1"/>
+    <col min="5" max="16384" width="8.6640625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A1" s="18"/>
       <c r="B1" s="18"/>
       <c r="C1" s="19" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="18"/>
       <c r="B2" s="20" t="s">
         <v>1</v>
@@ -1430,7 +1438,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:4">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" s="22"/>
       <c r="B3" s="23" t="s">
         <v>2</v>
@@ -1439,7 +1447,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:4" ht="101.45">
+    <row r="4" spans="1:4" ht="100.8" x14ac:dyDescent="0.3">
       <c r="A4" s="22"/>
       <c r="B4" s="23" t="s">
         <v>4</v>
@@ -1448,7 +1456,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:4" ht="45.75">
+    <row r="5" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="22"/>
       <c r="B5" s="23" t="s">
         <v>6</v>
@@ -1457,14 +1465,14 @@
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:4">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" s="27" t="s">
         <v>8</v>
       </c>
       <c r="B6" s="23"/>
       <c r="C6" s="28"/>
     </row>
-    <row r="7" spans="1:4">
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" s="22" t="s">
         <v>9</v>
       </c>
@@ -1475,7 +1483,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="8" spans="1:4">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" s="22" t="s">
         <v>9</v>
       </c>
@@ -1486,7 +1494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:4" ht="29.1">
+    <row r="9" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="22" t="s">
         <v>9</v>
       </c>
@@ -1497,7 +1505,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:4">
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" s="22" t="s">
         <v>16</v>
       </c>
@@ -1508,7 +1516,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="11" spans="1:4" ht="29.1">
+    <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="22" t="s">
         <v>19</v>
       </c>
@@ -1522,7 +1530,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="1:4">
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" s="22" t="s">
         <v>19</v>
       </c>
@@ -1536,7 +1544,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="13" spans="1:4">
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" s="22" t="s">
         <v>19</v>
       </c>
@@ -1547,7 +1555,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="14" spans="1:4" ht="43.5">
+    <row r="14" spans="1:4" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A14" s="22" t="s">
         <v>19</v>
       </c>
@@ -1558,7 +1566,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="15" spans="1:4" ht="116.1" hidden="1" outlineLevel="1">
+    <row r="15" spans="1:4" ht="115.2" hidden="1" outlineLevel="1" x14ac:dyDescent="0.3">
       <c r="A15" s="22" t="s">
         <v>19</v>
       </c>
@@ -1572,7 +1580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="16" spans="1:4" ht="101.45" collapsed="1">
+    <row r="16" spans="1:4" ht="100.8" collapsed="1" x14ac:dyDescent="0.3">
       <c r="A16" s="22" t="s">
         <v>19</v>
       </c>
@@ -1586,7 +1594,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="17" spans="1:5" ht="152.25">
+    <row r="17" spans="1:5" ht="144" x14ac:dyDescent="0.3">
       <c r="A17" s="22" t="s">
         <v>19</v>
       </c>
@@ -1597,7 +1605,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="1:5" ht="57.95">
+    <row r="18" spans="1:5" ht="57.6" x14ac:dyDescent="0.3">
       <c r="A18" s="22" t="s">
         <v>37</v>
       </c>
@@ -1609,7 +1617,7 @@
       </c>
       <c r="D18" s="5"/>
     </row>
-    <row r="22" spans="1:5">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C22" s="16" t="s">
         <v>40</v>
       </c>
@@ -1618,14 +1626,14 @@
       </c>
       <c r="E22" s="7"/>
     </row>
-    <row r="23" spans="1:5" s="7" customFormat="1">
+    <row r="23" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="C23" s="17" t="s">
         <v>42</v>
       </c>
       <c r="D23" s="8"/>
     </row>
-    <row r="24" spans="1:5" s="7" customFormat="1">
+    <row r="24" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="C24" s="9" t="s">
         <v>38</v>
@@ -1634,7 +1642,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="25" spans="1:5" s="7" customFormat="1">
+    <row r="25" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="C25" s="9" t="s">
         <v>43</v>
@@ -1643,7 +1651,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="26" spans="1:5" s="7" customFormat="1">
+    <row r="26" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A26" s="1"/>
       <c r="C26" s="9" t="s">
         <v>44</v>
@@ -1652,7 +1660,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="27" spans="1:5" s="7" customFormat="1">
+    <row r="27" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A27" s="1"/>
       <c r="C27" s="9" t="s">
         <v>45</v>
@@ -1661,7 +1669,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="28" spans="1:5" s="7" customFormat="1">
+    <row r="28" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A28" s="1"/>
       <c r="C28" s="9" t="s">
         <v>17</v>
@@ -1670,7 +1678,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="29" spans="1:5" s="7" customFormat="1">
+    <row r="29" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A29" s="1"/>
       <c r="C29" s="10" t="s">
         <v>20</v>
@@ -1682,7 +1690,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="30" spans="1:5" s="7" customFormat="1">
+    <row r="30" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A30" s="1"/>
       <c r="C30" s="9" t="s">
         <v>10</v>
@@ -1691,7 +1699,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="31" spans="1:5" s="7" customFormat="1">
+    <row r="31" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A31" s="1"/>
       <c r="C31" s="9" t="s">
         <v>23</v>
@@ -1700,7 +1708,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="32" spans="1:5" s="7" customFormat="1">
+    <row r="32" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A32" s="1"/>
       <c r="C32" s="9" t="s">
         <v>35</v>
@@ -1709,7 +1717,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="33" spans="1:5" s="7" customFormat="1">
+    <row r="33" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A33" s="1"/>
       <c r="C33" s="9" t="s">
         <v>25</v>
@@ -1718,7 +1726,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="34" spans="1:5" s="7" customFormat="1">
+    <row r="34" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A34" s="1"/>
       <c r="C34" s="9" t="s">
         <v>47</v>
@@ -1727,7 +1735,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:5" s="7" customFormat="1">
+    <row r="35" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A35" s="1"/>
       <c r="C35" s="9" t="s">
         <v>12</v>
@@ -1736,7 +1744,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="36" spans="1:5" s="7" customFormat="1">
+    <row r="36" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A36" s="1"/>
       <c r="C36" s="9" t="s">
         <v>32</v>
@@ -1745,7 +1753,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="37" spans="1:5" s="7" customFormat="1">
+    <row r="37" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A37" s="1"/>
       <c r="C37" s="9" t="s">
         <v>48</v>
@@ -1754,7 +1762,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:5" s="7" customFormat="1">
+    <row r="38" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A38" s="1"/>
       <c r="C38" s="9" t="s">
         <v>49</v>
@@ -1763,7 +1771,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="39" spans="1:5" s="7" customFormat="1">
+    <row r="39" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A39" s="1"/>
       <c r="C39" s="9" t="s">
         <v>50</v>
@@ -1772,7 +1780,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="40" spans="1:5" s="7" customFormat="1">
+    <row r="40" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A40" s="1"/>
       <c r="C40" s="9" t="s">
         <v>51</v>
@@ -1781,7 +1789,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="41" spans="1:5" s="7" customFormat="1">
+    <row r="41" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A41" s="1"/>
       <c r="C41" s="9" t="s">
         <v>52</v>
@@ -1790,7 +1798,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="42" spans="1:5" s="7" customFormat="1">
+    <row r="42" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A42" s="1"/>
       <c r="C42" s="9" t="s">
         <v>53</v>
@@ -1799,7 +1807,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:5" s="7" customFormat="1">
+    <row r="43" spans="1:5" s="7" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A43" s="1"/>
       <c r="C43" s="10" t="s">
         <v>54</v>
@@ -1811,7 +1819,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:5">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="C44" s="13"/>
       <c r="D44" s="14" t="s">
         <v>56</v>
@@ -1824,4 +1832,27 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ACA07EAA-4E45-4513-802A-C2389C937B62}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D22" sqref="D22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="81.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:1" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A1" s="34" t="s">
+        <v>58</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>